--- a/supplementary_data/area_pop_sums_evidence_types_income.xlsx
+++ b/supplementary_data/area_pop_sums_evidence_types_income.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Low</t>
   </si>
@@ -52,115 +52,115 @@
     <t>Other</t>
   </si>
   <si>
-    <t>40% (47%-30%)</t>
-  </si>
-  <si>
-    <t>21% (23%-19%)</t>
-  </si>
-  <si>
-    <t>20% (38%-13%)</t>
-  </si>
-  <si>
-    <t>6% (13%-2%)</t>
-  </si>
-  <si>
-    <t>40% (52%-32%)</t>
-  </si>
-  <si>
-    <t>5% (10%-3%)</t>
-  </si>
-  <si>
-    <t>11% (19%-4%)</t>
-  </si>
-  <si>
-    <t>9% (10%-6%)</t>
-  </si>
-  <si>
-    <t>32% (43%-25%)</t>
-  </si>
-  <si>
-    <t>9% (13%-7%)</t>
-  </si>
-  <si>
-    <t>23% (30%-14%)</t>
-  </si>
-  <si>
-    <t>6% (8%-4%)</t>
-  </si>
-  <si>
-    <t>5% (11%-2%)</t>
-  </si>
-  <si>
-    <t>0% (1%-0%)</t>
-  </si>
-  <si>
-    <t>9% (17%-5%)</t>
-  </si>
-  <si>
-    <t>3% (6%-2%)</t>
+    <t>40% (30%-47%)</t>
+  </si>
+  <si>
+    <t>21% (19%-23%)</t>
+  </si>
+  <si>
+    <t>20% (13%-38%)</t>
+  </si>
+  <si>
+    <t>6% (2%-13%)</t>
+  </si>
+  <si>
+    <t>40% (32%-52%)</t>
+  </si>
+  <si>
+    <t>5% (3%-10%)</t>
+  </si>
+  <si>
+    <t>11% (4%-19%)</t>
+  </si>
+  <si>
+    <t>9% (6%-10%)</t>
+  </si>
+  <si>
+    <t>32% (25%-43%)</t>
+  </si>
+  <si>
+    <t>9% (7%-13%)</t>
+  </si>
+  <si>
+    <t>23% (14%-30%)</t>
+  </si>
+  <si>
+    <t>6% (4%-8%)</t>
+  </si>
+  <si>
+    <t>5% (2%-11%)</t>
+  </si>
+  <si>
+    <t>0% (0%-1%)</t>
+  </si>
+  <si>
+    <t>9% (5%-17%)</t>
+  </si>
+  <si>
+    <t>3% (2%-6%)</t>
   </si>
   <si>
     <t>0% (0%-0%)</t>
   </si>
   <si>
-    <t>12% (19%-7%)</t>
-  </si>
-  <si>
-    <t>1% (2%-1%)</t>
-  </si>
-  <si>
-    <t>26% (25%-20%)</t>
+    <t>12% (7%-19%)</t>
+  </si>
+  <si>
+    <t>1% (1%-2%)</t>
+  </si>
+  <si>
+    <t>26% (20%-26%)</t>
   </si>
   <si>
     <t>3% (1%-4%)</t>
   </si>
   <si>
-    <t>32% (32%-31%)</t>
+    <t>32% (31%-32%)</t>
   </si>
   <si>
     <t>9% (4%-12%)</t>
   </si>
   <si>
-    <t>30% (26%-26%)</t>
-  </si>
-  <si>
-    <t>8% (4%-7%)</t>
-  </si>
-  <si>
-    <t>36% (39%-19%)</t>
-  </si>
-  <si>
-    <t>8% (9%-7%)</t>
-  </si>
-  <si>
-    <t>30% (28%-24%)</t>
+    <t>30% (26%-30%)</t>
+  </si>
+  <si>
+    <t>8% (4%-8%)</t>
+  </si>
+  <si>
+    <t>36% (19%-39%)</t>
+  </si>
+  <si>
+    <t>8% (7%-9%)</t>
+  </si>
+  <si>
+    <t>30% (24%-30%)</t>
   </si>
   <si>
     <t>7% (4%-7%)</t>
   </si>
   <si>
-    <t>33% (33%-20%)</t>
+    <t>33% (20%-33%)</t>
   </si>
   <si>
     <t>2% (0%-3%)</t>
   </si>
   <si>
-    <t>16% (52%-12%)</t>
-  </si>
-  <si>
-    <t>34% (48%-18%)</t>
-  </si>
-  <si>
-    <t>1% (3%-1%)</t>
-  </si>
-  <si>
-    <t>7% (13%-4%)</t>
-  </si>
-  <si>
-    <t>1% (3%-0%)</t>
-  </si>
-  <si>
-    <t>26% (41%-16%)</t>
+    <t>16% (12%-52%)</t>
+  </si>
+  <si>
+    <t>34% (18%-48%)</t>
+  </si>
+  <si>
+    <t>1% (1%-3%)</t>
+  </si>
+  <si>
+    <t>7% (4%-13%)</t>
+  </si>
+  <si>
+    <t>1% (0%-3%)</t>
+  </si>
+  <si>
+    <t>26% (16%-41%)</t>
   </si>
   <si>
     <t>8% (2%-23%)</t>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>18% (9%-32%)</t>
-  </si>
-  <si>
-    <t>3% (2%-6%)</t>
   </si>
   <si>
     <t>17% (10%-39%)</t>
@@ -643,7 +640,7 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -667,7 +664,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -693,7 +690,7 @@
         <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -717,7 +714,7 @@
         <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -743,7 +740,7 @@
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -767,7 +764,7 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -793,7 +790,7 @@
         <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -817,7 +814,7 @@
         <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -843,7 +840,7 @@
         <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -864,10 +861,10 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
